--- a/data/MSME Country Indicators - Chile Summary.xlsx
+++ b/data/MSME Country Indicators - Chile Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Chile</t>
   </si>
@@ -94,6 +94,51 @@
     <t>Source: SERCOTEC, 2012</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0,1 to 2.400 UF</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>10-49</t>
+  </si>
+  <si>
+    <t>2.401 to 25.000 UF</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>50-199</t>
+  </si>
+  <si>
+    <t>25.001 to 100.000 UF</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=200</t>
+  </si>
+  <si>
+    <t>&gt;=100.001 UF</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -338,9 +383,6 @@
   </si>
   <si>
     <t>http://www.sercotec.cl/Portals/0/MANUALES/situaci%C3%B3n%20de%20la%20microempresa.pdf</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>SERCOTEC</t>
@@ -436,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,357 +585,424 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
+      <c r="A21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E29" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>80</v>
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>90</v>
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>100</v>
+      <c r="A38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C42" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D42" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E42" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="B43" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="C43" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="D43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>109</v>
+      <c r="A44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>110</v>
+      <c r="A47" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>110</v>
+      <c r="A49" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1"/>
+    <hyperlink ref="A49" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Chile Summary.xlsx
+++ b/data/MSME Country Indicators - Chile Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Chile</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t>SERCOTEC</t>
-  </si>
-  <si>
-    <t>Servicio de Cooperacion Tecnica (SERCOTEC) an agency of the Ministry of Economy, Promotion and Tourism. "La situación de la micro y pequeña empresa en Chile - 2013," Santiago, Oficina Internacional del Trabajo, Organización Internacional del Trabajo y Servicio de Cooperación Técnica, 2013. Available at http://www.sercotec.cl/Portals/0/MANUALES/situaci%C3%B3n%20de%20la%20microempresa.pdf</t>
-  </si>
-  <si>
-    <t>Servicio de Cooperacion Tecnica (SERCOTEC), "La situación de la micro y pequeña empresa en Chile - 2013", 2013, p. 15-16. Available at http://4w.sercotec.cl/Portals/0/MANUALES/situaci%C3%B3n%20de%20la%20microempresa.pdf</t>
   </si>
 </sst>
 </file>
@@ -478,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,12 +961,12 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -980,30 +974,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>126</v>
+      <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A49" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - Chile Summary.xlsx
+++ b/data/MSME Country Indicators - Chile Summary.xlsx
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>47.8</t>
+    <t>36.48</t>
+  </si>
+  <si>
+    <t>11.28</t>
+  </si>
+  <si>
+    <t>47.76</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>39.18</t>
+  </si>
+  <si>
+    <t>46.01</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,10 +82,10 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>75.2</t>
-  </si>
-  <si>
-    <t>23.3</t>
+    <t>75.24</t>
+  </si>
+  <si>
+    <t>23.26</t>
   </si>
   <si>
     <t>98.5</t>
